--- a/ocms/src/test/resources/TestData/OCMChatAgentPerformanceReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMChatAgentPerformanceReportData.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C1629B-7F2E-4B7D-AEA3-E8137FF4E77A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14445" windowHeight="6495" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
-    <sheet name="ShowDateRange" sheetId="2" r:id="rId2"/>
-    <sheet name="ShowInNewPage" sheetId="3" r:id="rId3"/>
-    <sheet name="ShowInNewPageDateRange" sheetId="4" r:id="rId4"/>
-    <sheet name="ExportReport" sheetId="5" r:id="rId5"/>
-    <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
+    <sheet name="ShowInNewPage" sheetId="2" r:id="rId2"/>
+    <sheet name="ShowDateRange" sheetId="4" r:id="rId3"/>
+    <sheet name="ShowInNewPageDateRange" sheetId="5" r:id="rId4"/>
+    <sheet name="ExportReportDateRange" sheetId="6" r:id="rId5"/>
+    <sheet name="ExportReport" sheetId="3" r:id="rId6"/>
     <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
     <sheet name="Queries" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A2:E2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="58">
   <si>
     <t>Report Channel</t>
   </si>
@@ -49,7 +44,7 @@
     <t>Single Date</t>
   </si>
   <si>
-    <t>random.str</t>
+    <t>Date Range</t>
   </si>
   <si>
     <t>Start Date</t>
@@ -58,7 +53,112 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>Date Range</t>
+    <t>Agent Name</t>
+  </si>
+  <si>
+    <t>Is  not equal to</t>
+  </si>
+  <si>
+    <t>Contains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starts with </t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Column Type</t>
+  </si>
+  <si>
+    <t>Search String</t>
+  </si>
+  <si>
+    <t>Is equal to</t>
+  </si>
+  <si>
+    <t>Advanced Search</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>X Y</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Murali MS</t>
+  </si>
+  <si>
+    <t>30-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>31-03-2020 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ends with </t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>Agent ID</t>
+  </si>
+  <si>
+    <t>Line Agent1</t>
+  </si>
+  <si>
+    <t>Does not contain</t>
+  </si>
+  <si>
+    <t>Starts with</t>
+  </si>
+  <si>
+    <t>Ends with</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>GetNumber</t>
+  </si>
+  <si>
+    <t>GetCalendarType</t>
+  </si>
+  <si>
+    <t>Search String1</t>
+  </si>
+  <si>
+    <t>Search String2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murali </t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>DeleteReason</t>
+  </si>
+  <si>
+    <t>Delete</t>
   </si>
   <si>
     <t>Chat</t>
@@ -67,94 +167,93 @@
     <t>OCM Chat Agent Performance Report</t>
   </si>
   <si>
-    <t>Advanced Search</t>
-  </si>
-  <si>
-    <t>Column Name</t>
-  </si>
-  <si>
-    <t>Column Type</t>
-  </si>
-  <si>
-    <t>Search String</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Agent Name</t>
-  </si>
-  <si>
-    <t>Is equal to</t>
-  </si>
-  <si>
-    <t>Palak Garg</t>
-  </si>
-  <si>
-    <t>Is  not equal to</t>
-  </si>
-  <si>
-    <t>Palak garg</t>
-  </si>
-  <si>
-    <t>Contains</t>
-  </si>
-  <si>
-    <t>garg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starts with </t>
-  </si>
-  <si>
-    <t>chatbot</t>
+    <t>01-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>22-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>Is after</t>
+  </si>
+  <si>
+    <t>Average Handle Time</t>
+  </si>
+  <si>
+    <t>Average ACW Time</t>
+  </si>
+  <si>
+    <t>Is before</t>
+  </si>
+  <si>
+    <t>00:01:58</t>
+  </si>
+  <si>
+    <t>00:05:18</t>
   </si>
   <si>
     <t>Query</t>
   </si>
   <si>
-    <t>30-03-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>31-03-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>Select  AgentId as 'Agent ID',(isnull(a.firstname,'')+' '+isnull(a.lastname,'')) as [Agent Name] ,
-	count(1) [Total Chats],isnull(trans.Transfered,0) [Chats Transferred], isnull(conf.Conferenced,0) [Chats Conferenced],
-	dbo.SECONDSTOhhmmss(CAST(ROUND(CONVERT(BIGINT,(SUM(ISNULL(CAST(ACTIVETIME as INT),0)) +SUM(ISNULL(CAST(HOLDTIME as INT),0))))/CAST(COUNT(1) as decimal),0) as INT)) [Average Handle Time],
-	dbo.SECONDSTOhhmmss(CAST(ROUND(SUM(ISNULL(CAST([ACWTime] as INT),0))/CAST(COUNT(1) as decimal),0) as INT)) [Average ACW Time] 
-	from [TMAC_Interactions] T with(nolock) 
-	left join [AGT_Agent] A on A.AvayaLoginID=T.AgentId
-	left join
-	(
-	  select TrasnferConferenceFromAgent, count(1) as Transfered from TMAC_Interactions  with(nolock)
-	  where IsTransfered='1' and Createddatetime&gt;= 'ReportBeforeDate' and Createddatetime&lt;='ReportAfterDate' 
-	  and (Channel='TextChat' OR Channel='Chat') group by TrasnferConferenceFromAgent
-	)
-	trans on  trans.TrasnferConferenceFromAgent =A.AvayaLoginID
-	left join
-	(
-	  select TrasnferConferenceFromAgent, count(1) as Conferenced from TMAC_Interactions  with(nolock)
-	  where IsConferenced='1' and Createddatetime&gt;= 'ReportBeforeDate' and Createddatetime&lt;='ReportAfterDate' 
-	  and (Channel='TextChat' OR Channel='Chat') group by TrasnferConferenceFromAgent
-	)
-	conf on  conf.TrasnferConferenceFromAgent =A.AvayaLoginID
-	where (Channel='Chat' or Channel='TextChat')  
-	AND 
-	T.Createddatetime&gt;= 'ReportBeforeDate' and T.Createddatetime&lt;='ReportAfterDate'
-	group by AgentId,A.FirstName,A.LastName ,trans.Transfered,conf.Conferenced</t>
+    <t>Select  M.[AgentId] as [Agent ID], M.[AgentName] as [Agent Name], 
+count(1) [Total Chats], isnull(SUM([ChatTransferred]),0) [Chats Transferred],  
+isnull(SUM([ChatConferenced]),0) [Chats Conferenced],    
+dbo.SECONDSTOhhmmss(CAST(ROUND(CONVERT(BIGINT,(SUM(ISNULL(CAST(ACTIVETIME as INT),0)) +
+SUM(ISNULL(CAST(HOLDTIME as INT),0))))/CAST(COUNT(1) as decimal),0) as INT)) [Average Handle Time],    
+dbo.SECONDSTOhhmmss(CAST(ROUND(SUM(ISNULL(CAST([AverageACWTime] as INT),0))/CAST(COUNT(1) as decimal),0) as INT)) 
+as [Average ACW Time] 
+from (Select  AgentID ,
+     (isnull(A.firstname,'')+' '+isnull(A.lastname,'')) as AgentName,
+     isnull(trans.Transfered,0) as ChatTransferred,  
+     isnull(conf.Conferenced,0) as ChatConferenced,
+     ActiveTime,HoldTime,
+     AcwTime as AverageACWTime,
+     T.Createddatetime as CreatedDateTime,
+     T.ClosedDateTime as ClosedDateTime
+   from [TMAC_Interactions] T with(nolock) left join [AGT_Agent] A on A.AvayaLoginID=T.AgentId
+   left join
+   (
+      select Sessionid,TrasnferConferenceFromAgent, count(1) as Transfered from TMAC_Interactions  with(nolock)
+      where IsTransfered='1'  and (Channel='TextChat' OR Channel='Chat') group by TrasnferConferenceFromAgent,Sessionid
+   )
+   trans on  trans.TrasnferConferenceFromAgent = A.AvayaLoginID and trans.SessionID = T.SessionId and TrasnferToAgent &lt;&gt; '' and (IsTransfered!='1' or IsTranferedTo !='0')
+   left join
+   (
+      select Sessionid,TrasnferConferenceFromAgent, count(1) as Conferenced from TMAC_Interactions  with(nolock)
+      where IsConferenced='1' and (Channel='TextChat' OR Channel='Chat') group by TrasnferConferenceFromAgent,Sessionid
+   )
+   conf on  conf.TrasnferConferenceFromAgent = A.AvayaLoginID and conf.SessionID = T.SessionId and ConferenceToAgentList &lt;&gt; '' and (IsConferenced!='1' or IsConferencedTo !='0')
+   where (Channel='Chat' or Channel='TextChat')   AND
+   T.ClosedDateTime&gt;= 'ReportBeforeDate' and T.ClosedDateTime&lt;='ReportAfterDate') M
+   Group by M.AgentId, M.AgentName
+   order by AgentId;</t>
+  </si>
+  <si>
+    <t>01-09-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>28-09-2020 00:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,13 +276,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -244,12 +354,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -279,12 +389,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -456,29 +566,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
-    <col min="2" max="2" width="33.81640625" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,44 +601,50 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="2" max="2" width="34.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,123 +655,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -664,22 +678,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,46 +710,265 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="36.453125" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,21 +985,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -769,22 +1008,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,21 +1034,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -818,23 +1063,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,27 +1089,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -874,20 +1112,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="20.7265625" customWidth="1"/>
-    <col min="9" max="9" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,7 +1151,7 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
         <v>12</v>
@@ -915,55 +1162,221 @@
       <c r="I1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EC33D7-71BE-4F81-92FF-B043C39EA843}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="30.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -980,27 +1393,27 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
